--- a/data/var_map.xlsx
+++ b/data/var_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanvigupta/Documents/AHA/aha_data_update_code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDF05D8-BDFA-744B-8631-CD272C93C07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4857BBD-A63D-7148-B52C-01DEBC6B64AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15120" yWindow="-28340" windowWidth="68800" windowHeight="27220" activeTab="2" xr2:uid="{6B46C712-455F-3F46-AD2A-D824B8C8F780}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20820" activeTab="2" xr2:uid="{6B46C712-455F-3F46-AD2A-D824B8C8F780}"/>
   </bookViews>
   <sheets>
     <sheet name="AS2018 Layout" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7259" uniqueCount="3130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7259" uniqueCount="3129">
   <si>
     <t>End of Survey</t>
   </si>
@@ -10314,9 +10314,6 @@
 					 LUNGHOS, 	LUNGSYS, 	LUNGVEN,	LUNGNET,
 					 TISUHOS, 	TISUSYS, 	TISUVEN,	TISUNET,
 					 OTOTHHOS,	OTOTHSYS, 	OTOTHVEN, 	OTOTHNET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          </t>
   </si>
   <si>
     <t>MAPP3, MAPP5, MAPP8, MAPP12, MAPP13</t>
@@ -10831,7 +10828,7 @@
   <dimension ref="A1:J1184"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B361" sqref="B361"/>
     </sheetView>
   </sheetViews>
@@ -51565,7 +51562,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -51955,7 +51952,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51975,7 +51972,7 @@
         <v>3068</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3071</v>
@@ -51983,7 +51980,7 @@
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" ht="85">
       <c r="A2" s="14" t="s">
-        <v>3124</v>
+        <v>3063</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>3062</v>
@@ -52068,7 +52065,7 @@
         <v>3050</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>3077</v>
@@ -52094,7 +52091,7 @@
         <v>3047</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>3081</v>
@@ -52386,7 +52383,7 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="19" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>3104</v>
@@ -52456,7 +52453,7 @@
         <v>3003</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>3119</v>

--- a/data/var_map.xlsx
+++ b/data/var_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanvigupta/Documents/AHA/aha_data_update_code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4857BBD-A63D-7148-B52C-01DEBC6B64AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD3DB4B-D55C-BB48-BD70-671DAFF2CB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20820" activeTab="2" xr2:uid="{6B46C712-455F-3F46-AD2A-D824B8C8F780}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" activeTab="2" xr2:uid="{6B46C712-455F-3F46-AD2A-D824B8C8F780}"/>
   </bookViews>
   <sheets>
     <sheet name="AS2018 Layout" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7259" uniqueCount="3129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7260" uniqueCount="3129">
   <si>
     <t>End of Survey</t>
   </si>
@@ -10493,9 +10493,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -10505,6 +10502,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -40823,18 +40823,18 @@
       </c>
     </row>
     <row r="871" spans="1:10">
-      <c r="A871" s="18" t="s">
+      <c r="A871" s="22" t="s">
         <v>844</v>
       </c>
-      <c r="B871" s="18"/>
-      <c r="C871" s="18"/>
-      <c r="D871" s="18"/>
-      <c r="E871" s="18"/>
-      <c r="F871" s="18"/>
-      <c r="G871" s="18"/>
-      <c r="H871" s="18"/>
-      <c r="I871" s="18"/>
-      <c r="J871" s="18"/>
+      <c r="B871" s="22"/>
+      <c r="C871" s="22"/>
+      <c r="D871" s="22"/>
+      <c r="E871" s="22"/>
+      <c r="F871" s="22"/>
+      <c r="G871" s="22"/>
+      <c r="H871" s="22"/>
+      <c r="I871" s="22"/>
+      <c r="J871" s="22"/>
     </row>
     <row r="872" spans="1:10" ht="14">
       <c r="A872" s="2">
@@ -51951,15 +51951,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AF37EC-F0B3-A54B-934E-1D8E4C596AF3}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29.83203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="54" style="6" customWidth="1"/>
-    <col min="3" max="3" width="56.1640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="74.6640625" style="8" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="6"/>
   </cols>
@@ -52064,7 +52064,7 @@
       <c r="B8" s="13" t="s">
         <v>3050</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>3124</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -52090,10 +52090,10 @@
       <c r="B10" s="13" t="s">
         <v>3047</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>3125</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>3081</v>
       </c>
     </row>
@@ -52107,7 +52107,7 @@
       <c r="C11" s="13" t="s">
         <v>3066</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>3085</v>
       </c>
     </row>
@@ -52116,10 +52116,10 @@
         <v>3044</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>3083</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>3082</v>
       </c>
     </row>
@@ -52131,7 +52131,7 @@
       <c r="C13" s="13" t="s">
         <v>3066</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>3084</v>
       </c>
     </row>
@@ -52159,7 +52159,7 @@
       <c r="C15" s="13" t="s">
         <v>3066</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>3087</v>
       </c>
     </row>
@@ -52173,7 +52173,7 @@
       <c r="C16" s="13" t="s">
         <v>3066</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>3088</v>
       </c>
     </row>
@@ -52187,7 +52187,7 @@
       <c r="C17" s="13" t="s">
         <v>3066</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>3089</v>
       </c>
     </row>
@@ -52201,7 +52201,7 @@
       <c r="C18" s="13" t="s">
         <v>3066</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>3090</v>
       </c>
     </row>
@@ -52229,7 +52229,7 @@
       <c r="C20" s="13" t="s">
         <v>3066</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>3092</v>
       </c>
     </row>
@@ -52243,7 +52243,7 @@
       <c r="C21" s="13" t="s">
         <v>3066</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>3093</v>
       </c>
     </row>
@@ -52302,7 +52302,9 @@
       <c r="B26" s="13" t="s">
         <v>3021</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="16" t="s">
+        <v>2974</v>
+      </c>
       <c r="D26" s="8" t="s">
         <v>3098</v>
       </c>
@@ -52331,7 +52333,7 @@
       <c r="C28" s="16" t="s">
         <v>2774</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>3100</v>
       </c>
     </row>
@@ -52345,7 +52347,7 @@
       <c r="C29" s="16" t="s">
         <v>2774</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>3101</v>
       </c>
     </row>
@@ -52382,10 +52384,10 @@
         <v>3011</v>
       </c>
       <c r="B32" s="13"/>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>3126</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>3104</v>
       </c>
     </row>
@@ -52413,7 +52415,7 @@
       <c r="C34" s="15" t="s">
         <v>3066</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="19" t="s">
         <v>3106</v>
       </c>
     </row>
@@ -52427,7 +52429,7 @@
       <c r="C35" s="15" t="s">
         <v>3066</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="19" t="s">
         <v>3107</v>
       </c>
     </row>
@@ -52441,7 +52443,7 @@
       <c r="C36" s="15" t="s">
         <v>3066</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="19" t="s">
         <v>3108</v>
       </c>
     </row>
@@ -52452,10 +52454,10 @@
       <c r="B37" s="13" t="s">
         <v>3003</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>3127</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="19" t="s">
         <v>3119</v>
       </c>
     </row>
@@ -52466,7 +52468,7 @@
       <c r="B38" s="13" t="s">
         <v>3001</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>3123</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -52480,7 +52482,7 @@
       <c r="B39" s="13" t="s">
         <v>2999</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>3122</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -52497,7 +52499,7 @@
       <c r="C40" s="13" t="s">
         <v>3066</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="19" t="s">
         <v>3113</v>
       </c>
     </row>
@@ -52506,10 +52508,10 @@
         <v>2996</v>
       </c>
       <c r="B41" s="13"/>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>2361</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="19" t="s">
         <v>3109</v>
       </c>
     </row>
@@ -52518,10 +52520,10 @@
         <v>2995</v>
       </c>
       <c r="B42" s="13"/>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="18" t="s">
         <v>2359</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="19" t="s">
         <v>3110</v>
       </c>
     </row>
@@ -52530,10 +52532,10 @@
         <v>2994</v>
       </c>
       <c r="B43" s="13"/>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="18" t="s">
         <v>3112</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="19" t="s">
         <v>3111</v>
       </c>
     </row>
@@ -52561,7 +52563,7 @@
       <c r="C45" s="13" t="s">
         <v>3066</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="19" t="s">
         <v>3114</v>
       </c>
     </row>
@@ -52575,7 +52577,7 @@
       <c r="C46" s="13" t="s">
         <v>3066</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="19" t="s">
         <v>3115</v>
       </c>
     </row>
@@ -52589,7 +52591,7 @@
       <c r="C47" s="13" t="s">
         <v>3066</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="19" t="s">
         <v>3116</v>
       </c>
     </row>
@@ -52603,7 +52605,7 @@
       <c r="C48" s="13" t="s">
         <v>3066</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="19" t="s">
         <v>3117</v>
       </c>
     </row>
